--- a/Excel-Report/Cumber Results.xlsx
+++ b/Excel-Report/Cumber Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2304108_cognizant_com/Documents/Desktop/Project/HackthonProject/HackthonProject/Excel-Report/"/>
     </mc:Choice>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>Exp Result</t>
   </si>
@@ -76,12 +76,109 @@
   </si>
   <si>
     <t>Finding Doctor Test Case :10</t>
+  </si>
+  <si>
+    <t>Form Filling Test Case :1</t>
+  </si>
+  <si>
+    <t>Manojkumar</t>
+  </si>
+  <si>
+    <t>Cognizant</t>
+  </si>
+  <si>
+    <t>9876543210</t>
+  </si>
+  <si>
+    <t>manojkumar@gmail.com</t>
+  </si>
+  <si>
+    <t>&lt;500</t>
+  </si>
+  <si>
+    <t>Taking a demo</t>
+  </si>
+  <si>
+    <t>Valid Data</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Form Filling Test Case :2</t>
+  </si>
+  <si>
+    <t>Saminathan</t>
+  </si>
+  <si>
+    <t>9123041000</t>
+  </si>
+  <si>
+    <t>sami.nathan</t>
+  </si>
+  <si>
+    <t>501-1000</t>
+  </si>
+  <si>
+    <t>Invalid Email</t>
+  </si>
+  <si>
+    <t>Form Filling Test Case :3</t>
+  </si>
+  <si>
+    <t>Nivash</t>
+  </si>
+  <si>
+    <t>ni.vash@gmail</t>
+  </si>
+  <si>
+    <t>Form Filling Test Case :4</t>
+  </si>
+  <si>
+    <t>Praveen</t>
+  </si>
+  <si>
+    <t>91200</t>
+  </si>
+  <si>
+    <t>mark.shot.com</t>
+  </si>
+  <si>
+    <t>Form Filling Test Case :5</t>
+  </si>
+  <si>
+    <t>Velmurugan T</t>
+  </si>
+  <si>
+    <t>TNXT</t>
+  </si>
+  <si>
+    <t>velmurugant@gmail.com</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Form Filling Test Case :6</t>
+  </si>
+  <si>
+    <t>Samidurai</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>samidurai@gmail.com</t>
+  </si>
+  <si>
+    <t>Invalid Phone Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -576,12 +673,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6328125" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" customWidth="1"/>
-    <col min="4" max="8" width="22.08984375" customWidth="1"/>
-    <col min="9" max="10" width="22.08984375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="22.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="32.81640625"/>
+    <col min="2" max="2" customWidth="true" width="32.6328125"/>
+    <col min="3" max="3" customWidth="true" width="27.26953125"/>
+    <col min="4" max="8" customWidth="true" width="22.08984375"/>
+    <col min="9" max="10" customWidth="true" style="5" width="22.08984375"/>
+    <col min="11" max="11" customWidth="true" style="1" width="22.08984375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -608,7 +705,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
       <c r="K2" s="3" t="str">
@@ -617,7 +714,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
       <c r="K3" s="3" t="str">
@@ -626,7 +723,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>7</v>
       </c>
       <c r="K4" s="3" t="str">
@@ -635,7 +732,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
       <c r="K5" s="3" t="str">
@@ -644,7 +741,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>9</v>
       </c>
       <c r="K6" s="3" t="str">
@@ -653,7 +750,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>10</v>
       </c>
       <c r="K7" s="3" t="str">
@@ -674,7 +771,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>11</v>
       </c>
       <c r="K10" s="3" t="str">
@@ -683,11 +780,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="I11"/>
-      <c r="J11"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Test case Pass</v>
@@ -727,13 +824,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="4" width="14.26953125" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" customWidth="1"/>
-    <col min="6" max="7" width="14.26953125" customWidth="1"/>
-    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="35.0"/>
+    <col min="2" max="4" customWidth="true" width="14.26953125"/>
+    <col min="5" max="5" customWidth="true" width="22.453125"/>
+    <col min="6" max="7" customWidth="true" width="14.26953125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.453125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -759,39 +856,195 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="3" t="str">
-        <f>IF(H2=I2,"Test case Pass","Test Case Fail")</f>
-        <v>Test case Pass</v>
+      <c r="A2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J3" s="3" t="str">
-        <f t="shared" ref="J3:J34" si="0">IF(H3=I3,"Test case Pass","Test Case Fail")</f>
-        <v>Test case Pass</v>
+      <c r="A3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J4" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
+      <c r="A4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
+      <c r="A5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J6" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
+      <c r="A6" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J7" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
+      <c r="A7" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">

--- a/Excel-Report/Cumber Results.xlsx
+++ b/Excel-Report/Cumber Results.xlsx
@@ -3,22 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2304108_cognizant_com/Documents/Desktop/Project/HackthonProject/HackthonProject/Excel-Report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304108\eclipse-workspace\Finding_Doctor_Hackthon\Excel-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{55272BEF-8B31-467A-8F0B-BDDC3A336660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09754BF0-53BA-4036-A2EC-63751C6DFA7C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40D5C918-C54E-4661-BB3A-38132BB49769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{23802261-DEAB-4D4B-8C17-AA2DDF613296}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{23802261-DEAB-4D4B-8C17-AA2DDF613296}"/>
   </bookViews>
   <sheets>
     <sheet name="Finding Doctor (Cucumber)" sheetId="1" r:id="rId1"/>
     <sheet name="Form Filling(Cucumber)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -178,7 +179,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,7 +301,56 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -362,10 +411,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,18 +712,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE7AE154-5CD7-452C-B2D0-4A410A636F1A}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J11" sqref="B2:J11"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="32.81640625"/>
-    <col min="2" max="2" customWidth="true" width="32.6328125"/>
-    <col min="3" max="3" customWidth="true" width="27.26953125"/>
-    <col min="4" max="8" customWidth="true" width="22.08984375"/>
-    <col min="9" max="10" customWidth="true" style="5" width="22.08984375"/>
-    <col min="11" max="11" customWidth="true" style="1" width="22.08984375"/>
+    <col min="1" max="1" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6328125" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="4" max="8" width="22.08984375" customWidth="1"/>
+    <col min="9" max="10" width="22.08984375" style="5" customWidth="1"/>
+    <col min="11" max="11" width="22.08984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -705,7 +750,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="3" t="str">
@@ -714,7 +759,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="K3" s="3" t="str">
@@ -723,7 +768,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="K4" s="3" t="str">
@@ -732,7 +777,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="3" t="str">
@@ -741,7 +786,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="3" t="str">
@@ -750,7 +795,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="3" t="str">
@@ -771,7 +816,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="3" t="str">
@@ -780,11 +825,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
       <c r="K11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Test case Pass</v>
@@ -803,10 +846,10 @@
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:K11">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -816,24 +859,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53318EA8-D380-4A84-AF4A-1EBBFEF60D73}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="A2:I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.0"/>
-    <col min="2" max="4" customWidth="true" width="14.26953125"/>
-    <col min="5" max="5" customWidth="true" width="22.453125"/>
-    <col min="6" max="7" customWidth="true" width="14.26953125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="4" width="14.26953125" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="9" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -844,179 +888,200 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s" s="0">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s" s="0">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="K2" s="3" t="str">
+        <f>IF(I2=J2,"Test case Pass","Test Case Fail")</f>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s" s="0">
+      <c r="I3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" t="s" s="0">
+      <c r="J3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="K3" s="3" t="str">
+        <f t="shared" ref="K3:K34" si="0">IF(I3=J3,"Test case Pass","Test Case Fail")</f>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="J4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="K4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="s" s="0">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" t="s" s="0">
+      <c r="J5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="K5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>27</v>
       </c>
-      <c r="I6" t="s" s="0">
+      <c r="I6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" t="s" s="0">
+      <c r="J6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test Case Fail</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>40</v>
       </c>
       <c r="B7" t="s">
@@ -1046,182 +1111,186 @@
       <c r="J7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J8" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J10" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J11" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J12" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J13" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J14" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J15" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J16" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="17" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J17" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="18" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J18" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="19" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J19" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="20" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J20" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="21" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J21" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="22" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J22" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="23" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="24" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="25" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="26" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="27" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="28" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="29" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="30" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="31" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="32" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J32" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="33" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J33" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Test case Pass</v>
-      </c>
-    </row>
-    <row r="34" spans="10:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J34" s="3" t="str">
+      <c r="K7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="20" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="21" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K21" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="22" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K22" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="23" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K23" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="24" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K24" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="25" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="26" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K26" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="27" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K27" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="28" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K28" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="29" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K29" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="30" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K30" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="31" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K31" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="32" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K32" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K33" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+    </row>
+    <row r="34" spans="11:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J2:J34">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(J2))=0</formula>
+  <conditionalFormatting sqref="K2:K34">
+    <cfRule type="containsBlanks" dxfId="7" priority="3">
+      <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",J2)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",J2)))</formula>
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel-Report/Cumber Results.xlsx
+++ b/Excel-Report/Cumber Results.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304108\eclipse-workspace\Finding_Doctor_Hackthon\Excel-Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD6999ED-E41E-4381-B6DC-E559A26F9102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C22C75-E483-4404-8C98-4F682BEA54C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="2500" windowWidth="14400" windowHeight="7270" xr2:uid="{4DEB05EA-61BD-482D-9319-072A755B7D8D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4DEB05EA-61BD-482D-9319-072A755B7D8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Finding Doctor (Cucumber)" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="93">
   <si>
     <t>Test case</t>
   </si>
@@ -322,7 +322,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,7 +424,6 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,7 +443,65 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -472,28 +528,6 @@
       <font>
         <color theme="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -808,367 +842,382 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="12" max="12" customWidth="true" width="16.1796875"/>
+    <col min="1" max="1" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="J1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>56</v>
       </c>
-      <c r="I2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="L2" s="4"/>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(I2=J2,"Test case Pass","Test Case Fail")</f>
+        <v>Test case Pass</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>61</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>62</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>63</v>
       </c>
-      <c r="I3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="L3" s="4"/>
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K10" si="0">IF(I3=J3,"Test case Pass","Test Case Fail")</f>
+        <v>Test case Pass</v>
+      </c>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>64</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>65</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>66</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>68</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>63</v>
       </c>
-      <c r="I4" t="s" s="0">
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" t="s" s="0">
+      <c r="K4" t="str">
+        <f t="shared" si="0"/>
+        <v>Test Case Fail</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
         <v>6</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="K5" t="str">
+        <f t="shared" si="0"/>
+        <v>Test Case Fail</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="K7" t="str">
+        <f t="shared" si="0"/>
+        <v>Test Case Fail</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
         <v>52</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="F5" t="s" s="0">
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
         <v>61</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G8" t="s">
         <v>68</v>
       </c>
-      <c r="H5" t="s" s="0">
-        <v>73</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K5" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>77</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="F6" t="s" s="0">
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
         <v>54</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
         <v>55</v>
       </c>
-      <c r="H6" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="G7" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="H7" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="I7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="K7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J8" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="K8" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="G9" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="I9" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J9" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="K9" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>56</v>
       </c>
-      <c r="I10" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="K10" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="L10" s="4"/>
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="0"/>
+        <v>Test case Pass</v>
+      </c>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>91</v>
       </c>
       <c r="B11" t="s">
@@ -1198,21 +1247,30 @@
       <c r="J11" t="s">
         <v>5</v>
       </c>
-      <c r="K11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="4"/>
+      <c r="K11" t="str">
+        <f>IF(I11=J11,"Test case Pass","Test Case Fail")</f>
+        <v>Test case Pass</v>
+      </c>
+      <c r="L11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L2:L11">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Pass">
-      <formula>NOT(ISERROR(SEARCH("Pass",L2)))</formula>
+  <conditionalFormatting sqref="L3:L11 K1">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",L2)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K11">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",K2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1224,36 +1282,37 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.90625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.0"/>
-    <col min="3" max="3" customWidth="true" width="9.6328125"/>
-    <col min="4" max="4" customWidth="true" width="12.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="25.6328125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="8"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1265,385 +1324,385 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s" s="0">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s" s="0">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="K2" s="5" t="str">
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="4" t="str">
         <f>IF(I2=J2,"Test case Pass","Test Case Fail")</f>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s" s="0">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="K3" s="5" t="str">
+      <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="4" t="str">
         <f t="shared" ref="K3:K15" si="0">IF(I3=J3,"Test case Pass","Test Case Fail")</f>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="K4" s="5" t="str">
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s" s="0">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s" s="0">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="K5" s="5" t="str">
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s" s="0">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" t="s" s="0">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="H6" t="s">
         <v>20</v>
       </c>
-      <c r="I6" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s" s="0">
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="5" t="str">
+      <c r="K6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Test Case Fail</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="F7" t="s" s="0">
+      <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s" s="0">
+      <c r="G7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="H7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="K7" s="5" t="str">
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s" s="0">
+      <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s" s="0">
+      <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" t="s" s="0">
+      <c r="G8" t="s">
         <v>13</v>
       </c>
-      <c r="H8" t="s" s="0">
+      <c r="H8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J8" t="s" s="0">
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="5" t="str">
+      <c r="K8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Test Case Fail</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s" s="0">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s" s="0">
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s" s="0">
+      <c r="G9" t="s">
         <v>13</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="H9" t="s">
         <v>36</v>
       </c>
-      <c r="I9" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J9" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5" t="str">
+      <c r="I9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="F10" t="s" s="0">
+      <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" t="s" s="0">
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="H10" t="s">
         <v>36</v>
       </c>
-      <c r="I10" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s" s="0">
+      <c r="I10" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="5" t="str">
+      <c r="K10" s="4" t="str">
         <f>IF(I10=J10,"Test case Pass","Test Case Fail")</f>
         <v>Test Case Fail</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s" s="0">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="D11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="F11" t="s" s="0">
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" t="s" s="0">
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="H11" t="s">
         <v>36</v>
       </c>
-      <c r="I11" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J11" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="K11" s="5" t="str">
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K12" s="5" t="str">
+      <c r="K12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K13" s="5" t="str">
+      <c r="K13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K14" s="5" t="str">
+      <c r="K14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K15" s="5" t="str">
+      <c r="K15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Test case Pass</v>
       </c>
@@ -1653,13 +1712,13 @@
     <mergeCell ref="B1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="K2:K15">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
+    <cfRule type="containsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(K2))=0</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Fail">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",K2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Excel-Report/Cumber Results.xlsx
+++ b/Excel-Report/Cumber Results.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="90">
   <si>
     <t>Test case</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>20+ Years of experience</t>
+  </si>
+  <si>
+    <t>Test Case Fail</t>
   </si>
 </sst>
 </file>
@@ -327,7 +330,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,6 +363,16 @@
     <fill>
       <patternFill patternType="darkGrid">
         <bgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkGrid">
+        <bgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,6 +496,41 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
@@ -1175,10 +1223,10 @@
         <v>13</v>
       </c>
       <c r="K8" t="s" s="10">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="L8" t="s" s="1">
-        <v>14</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
